--- a/Document/项目文档.xlsx
+++ b/Document/项目文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字典类型" sheetId="2" r:id="rId1"/>
@@ -83,83 +83,83 @@
     <t>U00103</t>
   </si>
   <si>
+    <t>已冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U00202</t>
+  </si>
+  <si>
+    <t>U00104</t>
+  </si>
+  <si>
+    <t>U00105</t>
+  </si>
+  <si>
+    <t>IOS用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U01000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TableColumnsConfig#</t>
+  </si>
+  <si>
+    <t>命名空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称（不包含后缀）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表列名及格式配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NameSpace#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PageName#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Html#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>U00201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U00202</t>
-  </si>
-  <si>
-    <t>U00104</t>
-  </si>
-  <si>
-    <t>U00105</t>
-  </si>
-  <si>
-    <t>IOS用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U01000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TableColumnsConfig#</t>
-  </si>
-  <si>
-    <t>命名空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面名称（不包含后缀）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表列名及格式配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#NameSpace#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PageName#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Html#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="str">
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="str">
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -762,15 +762,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="4" t="str">
         <f>CONCATENATE("INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('",B2,"','",D2,"','",C2,"',1,0,1,1);")</f>
         <v>INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('U01000','后台管理用户','U00101',1,0,1,1);</v>
       </c>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F8" si="0">CONCATENATE("INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('",B3,"','",D3,"','",C3,"',1,0,1,1);")</f>
         <v>INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('U01000','前台PC用户','U00102',1,0,1,1);</v>
       </c>
@@ -817,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('U01000','前台手机用户','U00103',1,0,1,1);</v>
       </c>
@@ -830,13 +830,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('U01000','IOS用户','U00104',1,0,1,1);</v>
       </c>
@@ -849,13 +849,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('U01000','Android用户','U00105',1,0,1,1);</v>
       </c>
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('U02000','使用中','U00201',1,0,1,1);</v>
       </c>
@@ -888,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO tb_dictionary (DicTypeCode,DicName,DicCode,IsUsing,IsDeleted,CreateUser,UpdateUser) VALUES ('U02000','已冻结','U00202',1,0,1,1);</v>
       </c>
@@ -907,6 +907,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -916,6 +917,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -925,6 +927,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -934,6 +937,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -943,6 +947,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -955,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,34 +971,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Document/项目文档.xlsx
+++ b/Document/项目文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="字典类型" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面名称（不包含后缀）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,15 +147,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#PageName#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#Html#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>U00201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TableName#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CnFileName#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ClassName#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是表名去掉前缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -868,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
@@ -958,10 +978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,36 +989,55 @@
     <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
